--- a/data_test/grade.xlsx
+++ b/data_test/grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\workspace_java\School\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C6D9FC-7303-4C83-9691-9FC2C6A45B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4FFCD8-834D-4735-8170-1EDFA74E1FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22116" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,26 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tên bậc học" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>DANH SÁCH CÁC CẤP LỚP HỌC</t>
   </si>
@@ -40,95 +49,56 @@
     <t>Tên bậc học</t>
   </si>
   <si>
-    <t>Lớp 1</t>
-  </si>
-  <si>
-    <t>lh1</t>
-  </si>
-  <si>
     <t>Tiểu Học</t>
   </si>
   <si>
-    <t>Lớp 2</t>
-  </si>
-  <si>
-    <t>lh2</t>
-  </si>
-  <si>
-    <t>Lớp 3</t>
-  </si>
-  <si>
-    <t>lh3</t>
-  </si>
-  <si>
-    <t>Lớp 4</t>
-  </si>
-  <si>
-    <t>lh4</t>
-  </si>
-  <si>
-    <t>Lớp 5</t>
-  </si>
-  <si>
-    <t>lh5</t>
-  </si>
-  <si>
-    <t>Lớp 6</t>
-  </si>
-  <si>
-    <t>lh6</t>
-  </si>
-  <si>
     <t>Trung Học Cơ Sở</t>
   </si>
   <si>
-    <t>Lớp 7</t>
-  </si>
-  <si>
-    <t>lh7</t>
-  </si>
-  <si>
-    <t>Lớp 8</t>
-  </si>
-  <si>
-    <t>lh8</t>
-  </si>
-  <si>
-    <t>Lớp 9</t>
-  </si>
-  <si>
-    <t>lh9</t>
-  </si>
-  <si>
-    <t>Lớp 10</t>
-  </si>
-  <si>
-    <t>lh10</t>
-  </si>
-  <si>
     <t>Trung Học Phổ Thông</t>
   </si>
   <si>
-    <t>Lớp 11</t>
-  </si>
-  <si>
-    <t>lh11</t>
-  </si>
-  <si>
-    <t>Lớp 12</t>
-  </si>
-  <si>
-    <t>lh12</t>
+    <t>Khối lớp 1</t>
+  </si>
+  <si>
+    <t>Khối lớp 2</t>
+  </si>
+  <si>
+    <t>Khối lớp 3</t>
+  </si>
+  <si>
+    <t>Khối lớp 4</t>
+  </si>
+  <si>
+    <t>Khối lớp 5</t>
+  </si>
+  <si>
+    <t>Khối lớp 6</t>
+  </si>
+  <si>
+    <t>Khối lớp 7</t>
+  </si>
+  <si>
+    <t>Khối lớp 8</t>
+  </si>
+  <si>
+    <t>Khối lớp 9</t>
+  </si>
+  <si>
+    <t>Khối lớp 10</t>
+  </si>
+  <si>
+    <t>Khối lớp 11</t>
+  </si>
+  <si>
+    <t>Khối lớp 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +130,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,16 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,6 +230,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,28 +518,28 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -570,141 +547,142 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -734,28 +712,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
+      <c r="A1" s="4">
         <v>1357</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
